--- a/guidelines-1983-2024 (1).xlsx
+++ b/guidelines-1983-2024 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramirez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e4512b95878e60f/Desktop/ds340hcapstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328307E-D624-4EDE-9812-62A979D4B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1416" windowWidth="13476" windowHeight="11544" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8220" yWindow="636" windowWidth="13476" windowHeight="11544" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="11" r:id="rId1"/>
@@ -3528,8 +3528,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
